--- a/apature_photometry_calculate.xlsx
+++ b/apature_photometry_calculate.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NaverCloud\2018년\G2.관측천문학\수업자료\09.Apature Photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{FFDB8697-1010-4544-A4F4-74732F5BE787}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{18E7C188-065D-4C1A-A0FF-3D820EC3E4C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10800" xr2:uid="{2A6EB4CC-59F0-49AE-824C-1DEB5CF7F97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>N_pix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +44,50 @@
   </si>
   <si>
     <t>flux_star1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mag_star1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +95,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,21 +114,51 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -96,8 +167,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -414,139 +497,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAFC120-74DB-40A8-A6AF-FB887FEDA92E}">
-  <dimension ref="F6:I14"/>
+  <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="2" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="13" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="G6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C2">
         <v>1457298.2690000001</v>
       </c>
-      <c r="H6">
+      <c r="D2">
         <v>9236626.4839999992</v>
       </c>
-      <c r="I6">
+      <c r="E2">
         <v>7953812.0539999995</v>
       </c>
-    </row>
-    <row r="7" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
+      <c r="F2">
+        <v>2834136.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="C3">
         <v>1448809</v>
       </c>
-      <c r="H7">
+      <c r="D3">
         <v>9206814</v>
       </c>
-      <c r="I7">
+      <c r="E3">
         <v>7945287</v>
       </c>
-    </row>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
+      <c r="F3">
+        <v>2831169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="C4">
         <v>104.752308</v>
       </c>
-      <c r="H8">
+      <c r="D4">
         <v>381</v>
       </c>
-      <c r="I8">
+      <c r="E4">
         <v>382.43079</v>
       </c>
-    </row>
-    <row r="9" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
+      <c r="F4">
+        <v>217.44766999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="C5">
         <v>11119.445</v>
       </c>
-      <c r="H9">
+      <c r="D5">
         <v>20969</v>
       </c>
-      <c r="I9">
+      <c r="E5">
         <v>19858.983</v>
       </c>
-    </row>
-    <row r="10" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="G10">
+      <c r="F5">
+        <v>6904.1440000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C6">
         <v>11229.134</v>
       </c>
-      <c r="H10">
+      <c r="D6">
         <v>30962.716</v>
       </c>
     </row>
-    <row r="11" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="G11">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="H11">
+      <c r="D7">
         <v>9</v>
       </c>
-      <c r="I11">
+      <c r="E7">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="G12">
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8">
         <v>2.54</v>
       </c>
-      <c r="H12">
+      <c r="D8">
         <v>2.54</v>
       </c>
-      <c r="I12">
+      <c r="E8">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
+      <c r="F8">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="G13">
-        <f>G$6-(G$8*G$9)</f>
+      <c r="C9">
+        <f>C$2-(C$4*C$5)</f>
         <v>292510.74157094024</v>
       </c>
-      <c r="H13">
-        <f>H$6-(H$8*H$9)</f>
+      <c r="D9">
+        <f>D$2-(D$4*D$5)</f>
         <v>1247437.4839999992</v>
       </c>
-      <c r="I13">
-        <f>I$6-(I$8*I$9)</f>
+      <c r="E9">
+        <f>E$2-(E$4*E$5)</f>
         <v>359125.49671342969</v>
       </c>
-    </row>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
+      <c r="F9">
+        <f>F$2-(F$4*F$5)</f>
+        <v>1332846.4738555201</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="G14">
-        <f>G$7-(G$8*G$9)</f>
+      <c r="C10">
+        <f>C$3-(C$4*C$5)</f>
         <v>284021.47257094015</v>
       </c>
-      <c r="H14">
-        <f>H$7-(H$8*H$9)</f>
+      <c r="D10">
+        <f>D$3-(D$4*D$5)</f>
         <v>1217625</v>
       </c>
-      <c r="I14">
-        <f>I$7-(I$8*I$9)</f>
+      <c r="E10">
+        <f>E$3-(E$4*E$5)</f>
         <v>350600.44271343015</v>
       </c>
+      <c r="F10">
+        <f>F$3-(F$4*F$5)</f>
+        <v>1329878.9738555201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f>-2.5*LOG10(F9)</f>
+        <v>-15.311950318400935</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f>C15+ 5 *LOG10(C16/100)</f>
+        <v>5.9722205742005912</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>180</v>
+      </c>
+      <c r="D19">
+        <f>SIN($C19*PI()/180)</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="E19">
+        <f>COS($C19*PI()/180)</f>
+        <v>-1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1">
+        <v>20.75</v>
+      </c>
+      <c r="J19" s="1">
+        <f>I19*15</f>
+        <v>311.25</v>
+      </c>
+      <c r="K19" s="2">
+        <f>SIN($J19*PI()/180)</f>
+        <v>-0.75183980747897783</v>
+      </c>
+      <c r="L19" s="2">
+        <f>COS($J19*PI()/180)</f>
+        <v>0.6593458151000684</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <f>SIN($C20*PI()/180)</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="E20">
+        <f>COS($C20*PI()/180)</f>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-21</v>
+      </c>
+      <c r="J20" s="1">
+        <f>I20</f>
+        <v>-21</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" ref="K20:K23" si="0">SIN($J20*PI()/180)</f>
+        <v>-0.35836794954530027</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" ref="L20:L25" si="1">COS($J20*PI()/180)</f>
+        <v>0.93358042649720174</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>225</v>
+      </c>
+      <c r="D21">
+        <f>SIN($C21*PI()/180)</f>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="E21">
+        <f>COS($C21*PI()/180)</f>
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1">
+        <f>I21*15</f>
+        <v>300</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <f>C21-C19</f>
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <f>SIN($C22*PI()/180)</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="E22">
+        <f>COS($C22*PI()/180)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
+        <f>J21-J19</f>
+        <v>-11.25</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.19509032201612825</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D23">
+        <f>SIN($C23*PI()/180)</f>
+        <v>0.60459911486237483</v>
+      </c>
+      <c r="E23">
+        <f>COS($C23*PI()/180)</f>
+        <v>0.79652991802419626</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60459911486237483</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.79652991802419626</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <f>-1*E20*D22/F25</f>
+        <v>-0.89574760615073146</v>
+      </c>
+      <c r="E24">
+        <f>ASIN(D24)*180/PI()</f>
+        <v>-63.604619486564339</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
+        <v>167</v>
+      </c>
+      <c r="J24" s="4">
+        <f>ASIN(K24)*180/PI()</f>
+        <v>12.247229919368325</v>
+      </c>
+      <c r="K24" s="2">
+        <f>-L20*K22/L25</f>
+        <v>0.21213042568924403</v>
+      </c>
+      <c r="L24" s="2">
+        <f>ASIN(K24)*180/PI()</f>
+        <v>12.247229919368325</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <f>D20*D23-E19*E22*D23</f>
+        <v>0.729815691449757</v>
+      </c>
+      <c r="E25">
+        <f>ASIN(D25)*180/PI()</f>
+        <v>46.870945044160273</v>
+      </c>
+      <c r="F25">
+        <f>COS(E25*PI()/180)</f>
+        <v>0.68364395449218518</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1">
+        <v>30</v>
+      </c>
+      <c r="J25" s="4">
+        <f>ASIN(K25)*180/PI()</f>
+        <v>30.841658120759821</v>
+      </c>
+      <c r="K25" s="2">
+        <f>K20*K23+L20*L22*L23</f>
+        <v>0.51266725462108154</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.85858737822034348</v>
+      </c>
+      <c r="M25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>